--- a/LAPEntries/LAP-CellMediaInoculation-OT2-1.0.0/VariablesPlateIncubation.xlsx
+++ b/LAPEntries/LAP-CellMediaInoculation-OT2-1.0.0/VariablesPlateIncubation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\scripts_subir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\2daRevision\Cell_inoculation_in_diff_Media_LAP_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B0F91-2543-4EEA-BE16-9732F0F68788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD5353-35E8-482E-9B23-720949081B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="28770" windowHeight="15450" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88601B8A-FD41-4954-89FA-9C11A2D4AD80}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BD3386-5114-439D-B6DE-0454FCC51A7B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,8 +714,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -725,7 +726,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LAPEntries/LAP-CellMediaInoculation-OT2-1.0.0/VariablesPlateIncubation.xlsx
+++ b/LAPEntries/LAP-CellMediaInoculation-OT2-1.0.0/VariablesPlateIncubation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\2daRevision\Cell_inoculation_in_diff_Media_LAP_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD5353-35E8-482E-9B23-720949081B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB8B17-733E-4A71-B5F2-57428EDBD6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6274936-AB91-4DE5-B7DC-980916BA9E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
-    <t>Variables Names</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Samples per plate</t>
   </si>
   <si>
-    <t>vwrblueprintdepth105_96_wellplate_390ul</t>
-  </si>
-  <si>
     <t>opentrons_15_tuberack_falcon_15ml_conical</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>p300_single_gen2</t>
+  </si>
+  <si>
+    <t>Variable Names</t>
+  </si>
+  <si>
+    <t>nest_96_wellplate_200ul_flat</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A349740A-CF0C-4FE5-8579-A33B24B82111}" name="Tabla1" displayName="Tabla1" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{A349740A-CF0C-4FE5-8579-A33B24B82111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3359039F-CA05-4552-A47D-3A062985CC3D}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{3359039F-CA05-4552-A47D-3A062985CC3D}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{3F750555-F443-4744-A792-9BE9401D418D}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -224,7 +224,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F0DFDF1-343D-48BE-AC77-61645CB67124}" name="Tabla14" displayName="Tabla14" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{2F0DFDF1-343D-48BE-AC77-61645CB67124}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4EEE6F99-2784-4A7D-9F05-F0E0E122B839}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{4EEE6F99-2784-4A7D-9F05-F0E0E122B839}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{F1AD459D-F147-47BF-803A-317671C404C0}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -235,7 +235,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}" name="Tabla2" displayName="Tabla2" ref="A1:L4" totalsRowShown="0">
   <autoFilter ref="A1:L4" xr:uid="{1BEEA2D3-075F-49A6-80AD-CAA59F0A2167}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{924A4AB6-BE9D-46E6-ACF2-48D8AB55BA98}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{924A4AB6-BE9D-46E6-ACF2-48D8AB55BA98}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{CA055525-DC5C-481F-B7F4-FEF6E68053F7}" name="Plate 1"/>
     <tableColumn id="3" xr3:uid="{23A8A621-CDBA-49C2-B578-871CA9FB967A}" name="Plate 2"/>
     <tableColumn id="4" xr3:uid="{FB0D0580-7E82-4301-9AA4-A5F612C95F47}" name="Plate 3"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88601B8A-FD41-4954-89FA-9C11A2D4AD80}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,23 +563,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -587,15 +587,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -603,15 +603,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -638,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BD3386-5114-439D-B6DE-0454FCC51A7B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -650,66 +648,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -725,9 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF27EF-3993-44C4-8594-ED7A911EE7C5}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -736,45 +732,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>96</v>
@@ -782,18 +778,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
